--- a/docs/memory_scheme.xlsx
+++ b/docs/memory_scheme.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OS-Dev\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B94809-E050-4EE3-80DA-02D3389CD7D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0825E16-BF2D-4D5E-812D-1075FB9DFB7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8F1C4C04-0F8A-4A66-B54D-498E529094A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>IVT</t>
   </si>
@@ -153,9 +153,6 @@
     <t>0x004500</t>
   </si>
   <si>
-    <t>0x3600</t>
-  </si>
-  <si>
     <t>0x004600</t>
   </si>
   <si>
@@ -175,6 +172,15 @@
   </si>
   <si>
     <t>Memory Map</t>
+  </si>
+  <si>
+    <t>0x007A00</t>
+  </si>
+  <si>
+    <t>MBR</t>
+  </si>
+  <si>
+    <t>0x3400</t>
   </si>
 </sst>
 </file>
@@ -198,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +274,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -363,6 +375,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -679,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8378C181-517E-43FF-929C-F9967B8986BF}">
-  <dimension ref="B2:F26"/>
+  <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,13 +766,13 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -765,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -839,64 +854,75 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>17</v>
+        <v>49</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>3</v>
+        <v>42</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
